--- a/Math Model/Mice v.s. Owls.xlsx
+++ b/Math Model/Mice v.s. Owls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\58305\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60074778-8ECB-40E9-BC08-258366D651A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D793EE39-4E1E-4D5E-9A29-680A56C1510F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="9120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
@@ -45,21 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">M_{n+1} = 1.2*M_n - 0.001*O_n*M_n </t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Competition Mice-Owls</t>
@@ -140,17 +125,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,43 +309,43 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102</c:v>
+                  <c:v>217.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.87599999999999</c:v>
+                  <c:v>220.65371999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.54587155199998</c:v>
+                  <c:v>218.51502057967676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.96096625360252</c:v>
+                  <c:v>209.9222060885443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128.09060906783208</c:v>
+                  <c:v>194.78299184183081</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138.90098276791093</c:v>
+                  <c:v>174.38335749509389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>151.32733068587564</c:v>
+                  <c:v>151.36065504866261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>165.23667962713654</c:v>
+                  <c:v>128.92670484935653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>180.37710439814191</c:v>
+                  <c:v>109.69563598566273</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>196.30914281201865</c:v>
+                  <c:v>94.947410642230309</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>212.31651034694147</c:v>
+                  <c:v>84.741755300682613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,43 +438,43 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>200</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162</c:v>
+                  <c:v>184.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.44799999999998</c:v>
+                  <c:v>209.69255999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.52425689599997</c:v>
+                  <c:v>239.32367884064632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.2551390447949</c:v>
+                  <c:v>272.11821240258797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.60369820433829</c:v>
+                  <c:v>304.73005961065627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110.53808497001187</c:v>
+                  <c:v>332.02350715766556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.08435675024327</c:v>
+                  <c:v>348.21520290126597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.37128411699874</c:v>
+                  <c:v>349.1628044489633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>111.67372119074292</c:v>
+                  <c:v>334.44678278140447</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.45836976502329</c:v>
+                  <c:v>307.48745302811301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129.42978089047804</c:v>
+                  <c:v>273.63149205966658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1544,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,240 +1554,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
         <v>200</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="2">
+        <v>150</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f>A3+1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <f>1.2*B3-0.001*B3*C3</f>
-        <v>100</v>
-      </c>
-      <c r="C4" s="5">
-        <f>0.7*C3+0.002*B3*C3</f>
-        <v>180</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B15" si="0">1.2*B3-0.001*B3*C3</f>
+        <v>210</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C15" si="1">0.7*C3+0.002*B3*C3</f>
+        <v>165</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4">
         <v>150</v>
-      </c>
-      <c r="F4" s="6">
-        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f t="shared" ref="A5:A15" si="0">A4+1</f>
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A15" si="2">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <f>1.2*B4-0.001*B4*C4</f>
-        <v>102</v>
-      </c>
-      <c r="C5" s="5">
-        <f>0.7*C4+0.002*B4*C4</f>
-        <v>162</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>217.35</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>184.79999999999998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>300</v>
+      </c>
+      <c r="F5" s="4">
         <v>150</v>
-      </c>
-      <c r="F5" s="6">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <f>1.2*B5-0.001*B5*C5</f>
-        <v>105.87599999999999</v>
-      </c>
-      <c r="C6" s="5">
-        <f>0.7*C5+0.002*B5*C5</f>
-        <v>146.44799999999998</v>
-      </c>
-      <c r="E6" s="7">
+        <v>220.65371999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>209.69255999999996</v>
+      </c>
+      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5">
         <v>100</v>
-      </c>
-      <c r="F6" s="7">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <f>1.2*B6-0.001*B6*C6</f>
-        <v>111.54587155199998</v>
-      </c>
-      <c r="C7" s="5">
-        <f>0.7*C6+0.002*B6*C6</f>
-        <v>133.52425689599997</v>
-      </c>
-      <c r="E7" s="7">
+        <v>218.51502057967676</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>239.32367884064632</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
         <v>10</v>
-      </c>
-      <c r="F7" s="7">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <f>1.2*B7-0.001*B7*C7</f>
-        <v>118.96096625360252</v>
-      </c>
-      <c r="C8" s="5">
-        <f>0.7*C7+0.002*B7*C7</f>
-        <v>123.2551390447949</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>209.9222060885443</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>272.11821240258797</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <f>1.2*B8-0.001*B8*C8</f>
-        <v>128.09060906783208</v>
-      </c>
-      <c r="C9" s="5">
-        <f>0.7*C8+0.002*B8*C8</f>
-        <v>115.60369820433829</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>194.78299184183081</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>304.73005961065627</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <f>1.2*B9-0.001*B9*C9</f>
-        <v>138.90098276791093</v>
-      </c>
-      <c r="C10" s="5">
-        <f>0.7*C9+0.002*B9*C9</f>
-        <v>110.53808497001187</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>174.38335749509389</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>332.02350715766556</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <f>1.2*B10-0.001*B10*C10</f>
-        <v>151.32733068587564</v>
-      </c>
-      <c r="C11" s="5">
-        <f>0.7*C10+0.002*B10*C10</f>
-        <v>108.08435675024327</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>151.36065504866261</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>348.21520290126597</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <f>1.2*B11-0.001*B11*C11</f>
-        <v>165.23667962713654</v>
-      </c>
-      <c r="C12" s="5">
-        <f>0.7*C11+0.002*B11*C11</f>
-        <v>108.37128411699874</v>
+        <v>128.92670484935653</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>349.1628044489633</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <f>1.2*B12-0.001*B12*C12</f>
-        <v>180.37710439814191</v>
-      </c>
-      <c r="C13" s="5">
-        <f>0.7*C12+0.002*B12*C12</f>
-        <v>111.67372119074292</v>
+        <v>109.69563598566273</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>334.44678278140447</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="5">
-        <f>1.2*B13-0.001*B13*C13</f>
-        <v>196.30914281201865</v>
-      </c>
-      <c r="C14" s="5">
-        <f>0.7*C13+0.002*B13*C13</f>
-        <v>118.45836976502329</v>
+        <v>94.947410642230309</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>307.48745302811301</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
-        <f>1.2*B14-0.001*B14*C14</f>
-        <v>212.31651034694147</v>
-      </c>
-      <c r="C15" s="5">
-        <f>0.7*C14+0.002*B14*C14</f>
-        <v>129.42978089047804</v>
+        <v>84.741755300682613</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>273.63149205966658</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
